--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,9 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">------------------------------   
-    [  0  ] goiter ruled out  
-    [  1  ] goiter ruled in Diffuse Enlargement   
-    [  2  ] goiter ruled in Nodular Enlargement"        
+    [  1  ] goiter ruled out  
+    [  2  ] goiter ruled in Diffuse Enlargement   
+    [  3  ] goiter ruled in Nodular Enlargement"        
                   [ 21 ] Single Nodular Goiter        
                   [ 22 ] Multiple Nodular Goiter</t>
   </si>
@@ -50,11 +50,13 @@
   <si>
     <t xml:space="preserve">-------------------------------
     Evaluate the thyroid gland for tenderness   
-    [  0  ] Tender  [  1  ] Non-tender   </t>
+    [  1  ] Tender  [  2  ] Non-tender   </t>
   </si>
   <si>
     <t xml:space="preserve">------------------------------- 
-    Systolic or continuous Bruit (y/n) </t>
+    Systolic or continuous Bruit (y/n) 
+        [ 1 ]   yes        [  2 ]  no 
+            </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
@@ -310,11 +312,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.953125" defaultRowHeight="65.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.91015625" defaultRowHeight="65.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -393,11 +395,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.39453125" defaultRowHeight="34.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.36328125" defaultRowHeight="34.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -33,13 +33,13 @@
     [  1  ] goiter ruled out  
     [  2  ] goiter ruled in Diffuse Enlargement   
     [  3  ] goiter ruled in Nodular Enlargement"        
-                  [ 21 ] Single Nodular Goiter        
-                  [ 22 ] Multiple Nodular Goiter</t>
+                  [ 4 ] Single Nodular Goiter        
+                  [ 5 ] Multiple Nodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">------------------------------    
     Detect any nodules   
-    [  0  ] None  [  1  ] Single nodule   [  2  ] Multinodular Goiter </t>
+    [  1  ] None  [  2  ] Single nodule   [  3  ] Multinodular Goiter </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
@@ -78,27 +78,27 @@
     Class 6 : Sight loss (due to optic nerve involvement)</t>
   </si>
   <si>
-    <t xml:space="preserve">Goiter size :   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consistency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenderness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bruit</t>
+    <t xml:space="preserve">Goiter ruled out / in :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenderness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTR</t>
   </si>
   <si>
     <t xml:space="preserve">Exophthalmos</t>
   </si>
   <si>
-    <t xml:space="preserve">DTR</t>
-  </si>
-  <si>
     <t xml:space="preserve">goiter ruled out</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t xml:space="preserve">Systolic or continuous Bruit (yes) </t>
   </si>
   <si>
+    <t xml:space="preserve">1+ = present but depressed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 0 : No signs or symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">1+ = present but depressed</t>
-  </si>
-  <si>
     <t xml:space="preserve">goiter ruled in Diffuse Enlargement</t>
   </si>
   <si>
@@ -135,12 +135,12 @@
     <t xml:space="preserve">Systolic or continuous Bruit (no) </t>
   </si>
   <si>
+    <t xml:space="preserve">2+ = normal / average</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
   </si>
   <si>
-    <t xml:space="preserve">2+ = normal / average</t>
-  </si>
-  <si>
     <t xml:space="preserve">goiter ruled in Nodular Enlargement</t>
   </si>
   <si>
@@ -150,22 +150,22 @@
     <t xml:space="preserve">Firm</t>
   </si>
   <si>
+    <t xml:space="preserve">3+ = increased</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">3+ = increased</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Single Nodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">Cobble-stone</t>
   </si>
   <si>
+    <t xml:space="preserve">4+ = clonus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 3 : Proptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+ = clonus</t>
   </si>
   <si>
     <t xml:space="preserve">    Multiple Nodular Goiter</t>
@@ -272,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,6 +287,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -312,16 +316,16 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.91015625" defaultRowHeight="65.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.828125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -334,7 +338,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -347,32 +351,32 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="111.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="82.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="169.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -395,37 +399,38 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.36328125" defaultRowHeight="34.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -513,7 +518,7 @@
       <c r="C6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -521,12 +526,12 @@
       <c r="C7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>43</v>
       </c>
     </row>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -81,22 +81,22 @@
     <t xml:space="preserve">Goiter ruled out / in :</t>
   </si>
   <si>
-    <t xml:space="preserve">Nodules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenderness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exophthalmos</t>
+    <t xml:space="preserve">Nodules :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenderness : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruit : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTR :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exophthalmos :</t>
   </si>
   <si>
     <t xml:space="preserve">goiter ruled out</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">    Single Nodular Goiter</t>
+    <t xml:space="preserve">Single Nodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">Cobble-stone</t>
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Class 3 : Proptosis</t>
   </si>
   <si>
-    <t xml:space="preserve">    Multiple Nodular Goiter</t>
+    <t xml:space="preserve">Multiple Nodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">Firm to hard</t>
@@ -316,11 +316,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.828125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Submenu" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t xml:space="preserve">-----------------------------   
 Findings in Thyroid Disease 
@@ -138,46 +139,61 @@
     <t xml:space="preserve">2+ = normal / average</t>
   </si>
   <si>
+    <t xml:space="preserve">Class 1 : Only signs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goiter ruled in Nodular Enlargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+ = increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 2 : Soft tissue involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Nodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobble-stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ = clonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 3 : Proptosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Nodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firm to hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 4 : Extraocular muscle involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 5 : Corneal involvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 6 : Sight loss </t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
   </si>
   <si>
-    <t xml:space="preserve">goiter ruled in Nodular Enlargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3+ = increased</t>
-  </si>
-  <si>
     <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Nodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobble-stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+ = clonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 3 : Proptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Nodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firm to hard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Class 4 : Extraocular muscle involvement (usually with diplopia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard</t>
   </si>
   <si>
     <t xml:space="preserve">Class 5 : Corneal involvement (primarily due to lagophthalmos)</t>
@@ -320,7 +336,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.70703125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -400,10 +416,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.22265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -544,4 +560,71 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t xml:space="preserve">-----------------------------   
 Findings in Thyroid Disease 
@@ -100,97 +100,103 @@
     <t xml:space="preserve">Exophthalmos :</t>
   </si>
   <si>
-    <t xml:space="preserve">goiter ruled out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systolic or continuous Bruit (yes) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1+ = present but depressed</t>
+    <t xml:space="preserve">    [  out  ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Systolic or continuous Bruit [ yes ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1+ = present but depressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 0 : No signs or symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    goiter ruled in Diffuse Enlargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Single nodule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Soft to Firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Non-tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Systolic or continuous Bruit [ no ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2+ = normal / average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 1 : Only signs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    goiter ruled in Nodular Enlargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Multinodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3+ = increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 2 : Soft tissue involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Single Nodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cobble-stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4+ = clonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 3 : Proptosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Multiple Nodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Firm to hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 4 : Extraocular muscle involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 5 : Corneal involvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Class 6 : Sight loss </t>
   </si>
   <si>
     <t xml:space="preserve">Class 0 : No signs or symptoms</t>
   </si>
   <si>
-    <t xml:space="preserve">goiter ruled in Diffuse Enlargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single nodule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soft to Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systolic or continuous Bruit (no) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+ = normal / average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 1 : Only signs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">goiter ruled in Nodular Enlargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3+ = increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 2 : Soft tissue involvement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Nodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobble-stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+ = clonus</t>
+    <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
   </si>
   <si>
     <t xml:space="preserve">Class 3 : Proptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Nodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firm to hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 4 : Extraocular muscle involvement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 5 : Corneal involvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 6 : Sight loss </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
   </si>
   <si>
     <t xml:space="preserve">Class 4 : Extraocular muscle involvement (usually with diplopia)</t>
@@ -336,7 +342,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.70703125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.6328125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -415,11 +421,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.22265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -573,7 +579,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
@@ -585,37 +591,37 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,9 @@
   <si>
     <t xml:space="preserve">------------------------------    
     Detect any nodules   
-    [  1  ] None  [  2  ] Single nodule   [  3  ] Multinodular Goiter </t>
+    [  1  ] None  
+    [  2  ] Single nodule   
+    [  3  ] Multinodular Goiter </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
@@ -51,7 +53,8 @@
   <si>
     <t xml:space="preserve">-------------------------------
     Evaluate the thyroid gland for tenderness   
-    [  1  ] Tender  [  2  ] Non-tender   </t>
+    [  1  ] Tender  
+    [  2  ] Non-tender   </t>
   </si>
   <si>
     <t xml:space="preserve">------------------------------- 
@@ -338,11 +341,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.6328125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.59375" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -421,11 +424,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.1328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -579,7 +582,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -47,8 +47,12 @@
   <si>
     <t xml:space="preserve">-------------------------------
     thyroid gland for consistency   
-    [  1  ] Soft    [  2  ] Soft to Firm  [  3  ] Firm   
-    [  4  ] Cobble-stone  [  5  ] Firm to hard  [  6  ] Hard </t>
+    [  1  ] Soft    
+    [  2  ] Soft to Firm  
+    [  3  ] Firm   
+    [  4  ] Cobble-stone  
+    [  5  ] Firm to hard  
+    [  6  ] Hard </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
@@ -341,11 +345,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.59375" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.55078125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -428,7 +432,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.1328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -582,7 +586,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t xml:space="preserve">-----------------------------   
 Findings in Thyroid Disease 
@@ -86,7 +86,7 @@
     Class 6 : Sight loss (due to optic nerve involvement)</t>
   </si>
   <si>
-    <t xml:space="preserve">Goiter ruled out / in :</t>
+    <t xml:space="preserve">Goiter :</t>
   </si>
   <si>
     <t xml:space="preserve">Nodules :</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">Exophthalmos :</t>
   </si>
   <si>
-    <t xml:space="preserve">    [  out  ]</t>
+    <t xml:space="preserve">    ruled  [  out  ]</t>
   </si>
   <si>
     <t xml:space="preserve">    None</t>
   </si>
   <si>
-    <t xml:space="preserve">    Soft</t>
+    <t xml:space="preserve">Soft</t>
   </si>
   <si>
     <t xml:space="preserve">    Tender</t>
@@ -125,16 +125,16 @@
     <t xml:space="preserve">     1+ = present but depressed</t>
   </si>
   <si>
-    <t xml:space="preserve">    Class 0 : No signs or symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    goiter ruled in Diffuse Enlargement</t>
+    <t xml:space="preserve">Class 0 : No signs or symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled in Diffuse Enlargement</t>
   </si>
   <si>
     <t xml:space="preserve">    Single nodule </t>
   </si>
   <si>
-    <t xml:space="preserve">    Soft to Firm</t>
+    <t xml:space="preserve">Soft to Firm</t>
   </si>
   <si>
     <t xml:space="preserve">    Non-tender</t>
@@ -146,64 +146,58 @@
     <t xml:space="preserve">    2+ = normal / average</t>
   </si>
   <si>
-    <t xml:space="preserve">    Class 1 : Only signs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    goiter ruled in Nodular Enlargement</t>
+    <t xml:space="preserve">Class 1 : Only signs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruled in Nodular Enlargement</t>
   </si>
   <si>
     <t xml:space="preserve">    Multinodular Goiter</t>
   </si>
   <si>
-    <t xml:space="preserve">    Firm</t>
+    <t xml:space="preserve">Firm</t>
   </si>
   <si>
     <t xml:space="preserve">    3+ = increased</t>
   </si>
   <si>
-    <t xml:space="preserve">    Class 2 : Soft tissue involvement </t>
+    <t xml:space="preserve">Class 2 : Soft tissue involvement </t>
   </si>
   <si>
     <t xml:space="preserve">    Single Nodular Goiter</t>
   </si>
   <si>
-    <t xml:space="preserve">    Cobble-stone</t>
+    <t xml:space="preserve">Cobble-stone</t>
   </si>
   <si>
     <t xml:space="preserve">    4+ = clonus</t>
   </si>
   <si>
-    <t xml:space="preserve">    Class 3 : Proptosis</t>
+    <t xml:space="preserve">Class 3 : Proptosis</t>
   </si>
   <si>
     <t xml:space="preserve">    Multiple Nodular Goiter</t>
   </si>
   <si>
-    <t xml:space="preserve">   Firm to hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Class 4 : Extraocular muscle involvement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Class 5 : Corneal involvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Class 6 : Sight loss </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 0 : No signs or symptoms</t>
+    <t xml:space="preserve">Firm to hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 4 : Extraocular muscle involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 5 : Corneal involvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 6 : Sight loss </t>
   </si>
   <si>
     <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
   </si>
   <si>
     <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 3 : Proptosis</t>
   </si>
   <si>
     <t xml:space="preserve">Class 4 : Extraocular muscle involvement (usually with diplopia)</t>
@@ -345,11 +339,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.55078125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.46875" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -428,11 +422,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.05078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -586,7 +580,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
@@ -598,37 +592,37 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -107,22 +107,22 @@
     <t xml:space="preserve">Exophthalmos :</t>
   </si>
   <si>
-    <t xml:space="preserve">    ruled  [  out  ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Systolic or continuous Bruit [ yes ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     1+ = present but depressed</t>
+    <t xml:space="preserve">ruled  [  out  ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systolic or continuous Bruit [ yes ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1+ = present but depressed</t>
   </si>
   <si>
     <t xml:space="preserve">Class 0 : No signs or symptoms</t>
@@ -131,52 +131,52 @@
     <t xml:space="preserve">ruled in Diffuse Enlargement</t>
   </si>
   <si>
-    <t xml:space="preserve">    Single nodule </t>
+    <t xml:space="preserve">Single nodule </t>
   </si>
   <si>
     <t xml:space="preserve">Soft to Firm</t>
   </si>
   <si>
-    <t xml:space="preserve">    Non-tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Systolic or continuous Bruit [ no ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2+ = normal / average</t>
+    <t xml:space="preserve">Non-tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systolic or continuous Bruit [ no ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+ = normal / average</t>
   </si>
   <si>
     <t xml:space="preserve">Class 1 : Only signs </t>
   </si>
   <si>
-    <t xml:space="preserve"> ruled in Nodular Enlargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Multinodular Goiter</t>
+    <t xml:space="preserve">ruled in Nodular Enlargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">Firm</t>
   </si>
   <si>
-    <t xml:space="preserve">    3+ = increased</t>
+    <t xml:space="preserve">3+ = increased</t>
   </si>
   <si>
     <t xml:space="preserve">Class 2 : Soft tissue involvement </t>
   </si>
   <si>
-    <t xml:space="preserve">    Single Nodular Goiter</t>
+    <t xml:space="preserve">Single Nodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">Cobble-stone</t>
   </si>
   <si>
-    <t xml:space="preserve">    4+ = clonus</t>
+    <t xml:space="preserve">4+ = clonus</t>
   </si>
   <si>
     <t xml:space="preserve">Class 3 : Proptosis</t>
   </si>
   <si>
-    <t xml:space="preserve">    Multiple Nodular Goiter</t>
+    <t xml:space="preserve">Multiple Nodular Goiter</t>
   </si>
   <si>
     <t xml:space="preserve">Firm to hard</t>
@@ -343,7 +343,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.46875" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.34765625" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -422,19 +422,20 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.05078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.9609375" defaultRowHeight="64.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -457,7 +458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>15</v>
       </c>
@@ -480,7 +481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>22</v>
       </c>
@@ -503,7 +504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>29</v>
       </c>
@@ -520,7 +521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>34</v>
       </c>
@@ -534,7 +535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>38</v>
       </c>
@@ -545,7 +546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
         <v>41</v>
       </c>
@@ -553,7 +554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G8" s="0" t="s">
         <v>43</v>
       </c>
@@ -580,7 +581,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -63,16 +63,17 @@
   <si>
     <t xml:space="preserve">------------------------------- 
     Systolic or continuous Bruit (y/n) 
-        [ 1 ]   yes        [  2 ]  no 
+    [  1  ]   yes        
+    [  2  ]   no 
             </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
     DTR deep tendon reflex  In general, the grades are as follows:
-                1+ = present but depressed   
-                2+ = normal / average   
-                3+ = increased   
-                4+ = clonus</t>
+        1+ = present but depressed   
+        2+ = normal / average   
+        3+ = increased   
+        4+ = clonus</t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
@@ -122,7 +123,7 @@
     <t xml:space="preserve">Systolic or continuous Bruit [ yes ] </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1+ = present but depressed</t>
+    <t xml:space="preserve">1+ = present but depressed</t>
   </si>
   <si>
     <t xml:space="preserve">Class 0 : No signs or symptoms</t>
@@ -339,11 +340,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.34765625" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.265625" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -422,11 +423,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.9609375" defaultRowHeight="64.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.91015625" defaultRowHeight="64.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
@@ -581,7 +582,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>

--- a/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
+++ b/src/je/panse/doro/fourgate/thyroid/dataxlsxfile/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">-----------------------------   
 Findings in Thyroid Disease 
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
-    Exophthalmos   
+TED : Thyroid Eye disease  
     Class 0 : No signs or symptoms  
     Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)  
     Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)  
@@ -102,97 +102,100 @@
     <t xml:space="preserve">Bruit : </t>
   </si>
   <si>
-    <t xml:space="preserve">DTR :</t>
+    <t xml:space="preserve">DTR : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werner’s Report : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled  [  out  ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systolic or continuous Bruit [ yes ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+ = present but depressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0 : No signs or symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled in Diffuse Enlargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single nodule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft to Firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-tender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systolic or continuous Bruit [ no ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+ = normal / average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 1 : Only signs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled in Nodular Enlargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+ = increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 2 : Soft tissue involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Nodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobble-stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ = clonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 3 : Proptosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Nodular Goiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firm to hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 4 : Extraocular muscle involvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 5 : Corneal involvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 6 : Sight loss </t>
   </si>
   <si>
     <t xml:space="preserve">Exophthalmos :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled  [  out  ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systolic or continuous Bruit [ yes ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1+ = present but depressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 0 : No signs or symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled in Diffuse Enlargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single nodule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soft to Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-tender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systolic or continuous Bruit [ no ] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+ = normal / average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 1 : Only signs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruled in Nodular Enlargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3+ = increased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 2 : Soft tissue involvement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Nodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobble-stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+ = clonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 3 : Proptosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Nodular Goiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firm to hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 4 : Extraocular muscle involvement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 5 : Corneal involvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 6 : Sight loss </t>
   </si>
   <si>
     <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
@@ -340,11 +343,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.265625" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.18359375" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
   </cols>
@@ -423,11 +426,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.91015625" defaultRowHeight="64.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="64.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
@@ -582,14 +585,14 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,12 +602,12 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,17 +617,17 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
